--- a/github.xlsx
+++ b/github.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="20340" windowHeight="7950" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="20340" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Wyniki ankiet" sheetId="1" r:id="rId1"/>
@@ -139,12 +139,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Czcionka tekstu podstawowego"/>
       <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Czcionka tekstu podstawowego"/>
       <charset val="238"/>
     </font>
   </fonts>
@@ -168,12 +175,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -470,8 +478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -481,14 +489,14 @@
     <col min="3" max="3" width="30.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="42.75">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" ht="45">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -496,255 +504,561 @@
       <c r="A2">
         <v>6.9</v>
       </c>
+      <c r="B2">
+        <v>4.2</v>
+      </c>
+      <c r="C2">
+        <v>6.6</v>
+      </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
         <v>7</v>
       </c>
+      <c r="B3">
+        <v>6.5</v>
+      </c>
+      <c r="C3">
+        <v>4.0999999999999996</v>
+      </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
         <v>6.4</v>
       </c>
+      <c r="B4">
+        <v>5.8</v>
+      </c>
+      <c r="C4">
+        <v>5.4</v>
+      </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
         <v>6.6</v>
       </c>
+      <c r="B5">
+        <v>5.8</v>
+      </c>
+      <c r="C5">
+        <v>5.2</v>
+      </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
         <v>6.8</v>
       </c>
+      <c r="B6">
+        <v>2.6</v>
+      </c>
+      <c r="C6">
+        <v>6.1</v>
+      </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
         <v>4.4000000000000004</v>
       </c>
+      <c r="B7">
+        <v>4.3</v>
+      </c>
+      <c r="C7">
+        <v>6.3</v>
+      </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
         <v>4.0999999999999996</v>
       </c>
+      <c r="B8">
+        <v>2.5</v>
+      </c>
+      <c r="C8">
+        <v>5.8</v>
+      </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
         <v>3.8</v>
       </c>
+      <c r="B9">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C9">
+        <v>6.7</v>
+      </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
         <v>2.4</v>
       </c>
+      <c r="B10">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C10">
+        <v>5.3</v>
+      </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
         <v>2.2000000000000002</v>
       </c>
+      <c r="B11">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C11">
+        <v>7.4</v>
+      </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
         <v>2.5</v>
       </c>
+      <c r="B12">
+        <v>5.2</v>
+      </c>
+      <c r="C12">
+        <v>5.3</v>
+      </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
         <v>3.2</v>
       </c>
+      <c r="B13">
+        <v>3.6</v>
+      </c>
+      <c r="C13">
+        <v>6.7</v>
+      </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
         <v>3.1</v>
       </c>
+      <c r="B14">
+        <v>6.7</v>
+      </c>
+      <c r="C14">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
         <v>3.5</v>
       </c>
+      <c r="B15">
+        <v>1.8</v>
+      </c>
+      <c r="C15">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>5.2</v>
+      </c>
+      <c r="C16">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>4.5</v>
+      </c>
+      <c r="C17">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>3.1</v>
+      </c>
+      <c r="C18">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>3.7</v>
+      </c>
+      <c r="C19">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>4.5</v>
+      </c>
+      <c r="C21">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>2.9</v>
+      </c>
+      <c r="C22">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C23">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>5.2</v>
+      </c>
+      <c r="C24">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
+      <c r="B25">
+        <v>2.7</v>
+      </c>
+      <c r="C25">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
+      <c r="B26">
+        <v>3.9</v>
+      </c>
+      <c r="C26">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
+      <c r="B28">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C28">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
+      <c r="B29">
+        <v>5.9</v>
+      </c>
+      <c r="C29">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30">
         <v>7.3</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
+      <c r="B30">
+        <v>5.6</v>
+      </c>
+      <c r="C30">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="32" spans="1:1">
+      <c r="B31">
+        <v>4.8</v>
+      </c>
+      <c r="C31">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
+      <c r="B32">
+        <v>3.5</v>
+      </c>
+      <c r="C32">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
+      <c r="B33">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C33">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
+      <c r="B34">
+        <v>4.3</v>
+      </c>
+      <c r="C34">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
+      <c r="B35">
+        <v>7.1</v>
+      </c>
+      <c r="C35">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
+      <c r="B36">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C36">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
+      <c r="B37">
+        <v>4.8</v>
+      </c>
+      <c r="C37">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="39" spans="1:1">
+      <c r="B38">
+        <v>5</v>
+      </c>
+      <c r="C38">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="40" spans="1:1">
+      <c r="B39">
+        <v>6.3</v>
+      </c>
+      <c r="C39">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="41" spans="1:1">
+      <c r="B40">
+        <v>6.4</v>
+      </c>
+      <c r="C40">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="42" spans="1:1">
+      <c r="B41">
+        <v>4.7</v>
+      </c>
+      <c r="C41">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="43" spans="1:1">
+      <c r="B42">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C42">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="44" spans="1:1">
+      <c r="B43">
+        <v>4.3</v>
+      </c>
+      <c r="C43">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="45" spans="1:1">
+      <c r="B44">
+        <v>7.2</v>
+      </c>
+      <c r="C44">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="46" spans="1:1">
+      <c r="B45">
+        <v>5.8</v>
+      </c>
+      <c r="C45">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="47" spans="1:1">
+      <c r="B46">
+        <v>5.3</v>
+      </c>
+      <c r="C46">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="48" spans="1:1">
+      <c r="B47">
+        <v>6.5</v>
+      </c>
+      <c r="C47">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
+      <c r="B48">
+        <v>7.4</v>
+      </c>
+      <c r="C48">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
+      <c r="B49">
+        <v>6.1</v>
+      </c>
+      <c r="C49">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
+      <c r="B50">
+        <v>7</v>
+      </c>
+      <c r="C50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
+      <c r="B51">
+        <v>7.2</v>
+      </c>
+      <c r="C51">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52">
         <v>6</v>
+      </c>
+      <c r="B52">
+        <v>4</v>
+      </c>
+      <c r="C52">
+        <v>6.3</v>
       </c>
     </row>
   </sheetData>
@@ -756,9 +1070,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
@@ -767,34 +1079,34 @@
     <col min="3" max="3" width="9.75" customWidth="1"/>
     <col min="4" max="4" width="28.25" customWidth="1"/>
     <col min="5" max="5" width="23.125" customWidth="1"/>
-    <col min="6" max="6" width="17.875" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
     <col min="7" max="7" width="33.625" customWidth="1"/>
     <col min="8" max="8" width="17.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="28.5">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" ht="30">
+      <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -814,7 +1126,7 @@
       <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G2" t="s">
@@ -2230,6 +2542,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
